--- a/docs/excel/TSkill.xlsx
+++ b/docs/excel/TSkill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="450" windowWidth="26670" windowHeight="10830" tabRatio="204" activeTab="1"/>
+    <workbookView xWindow="300" yWindow="450" windowWidth="26670" windowHeight="10830" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TSkill" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>TableName: "TSkill" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +537,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -538,7 +550,7 @@
     <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -551,8 +563,11 @@
       <c r="D1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -565,13 +580,16 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -584,8 +602,11 @@
       <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -596,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -607,7 +628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -618,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -629,7 +650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -640,19 +661,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
     </row>
@@ -672,7 +693,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/docs/excel/TSkill.xlsx
+++ b/docs/excel/TSkill.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -119,6 +119,115 @@
   </si>
   <si>
     <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金币奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>+5%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大招所需能量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双倍时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贯穿弹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事件间隔时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>+10%</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +649,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -548,6 +657,7 @@
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -616,6 +726,9 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -627,6 +740,9 @@
       <c r="C6">
         <v>2</v>
       </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -638,6 +754,9 @@
       <c r="D7">
         <v>2</v>
       </c>
+      <c r="E7" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -649,6 +768,9 @@
       <c r="D8">
         <v>5</v>
       </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -659,6 +781,9 @@
       </c>
       <c r="D9">
         <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">

--- a/docs/excel/TSkill.xlsx
+++ b/docs/excel/TSkill.xlsx
@@ -75,53 +75,56 @@
   </si>
   <si>
     <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.贯穿弹2.延长双倍3.加快大招累计4.增加击碎金币5.延长事件间隔时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>整数数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NumPer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>百分比数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TableName: "TSkill" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color="#0000ff"&gt;</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -129,7 +132,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>金币奖励</t>
+      <t>贯穿弹</t>
     </r>
     <r>
       <rPr>
@@ -137,11 +140,14 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>+5%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>&lt;/font&gt;&lt;font color="#ff7f50"&gt;+1&lt;/font&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color="#0000ff"&gt;</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -149,7 +155,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大招所需能量</t>
+      <t>双倍时间</t>
     </r>
     <r>
       <rPr>
@@ -157,11 +163,25 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>-2%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>&lt;/font&gt;&lt;font color="#ff7f50"&gt;+2s&lt;/font&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color="#0000ff"&gt;</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -169,7 +189,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>双倍时间</t>
+      <t>大招所需能量</t>
     </r>
     <r>
       <rPr>
@@ -177,7 +197,24 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>+2</t>
+      <t>&lt;/font&gt;&lt;font color="#ff7f50"&gt;-2%&lt;/font&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color="#0000ff"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -186,11 +223,33 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>秒</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>金币奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;&lt;font color="#ff7f50"&gt;+5%&lt;/font&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color="#0000ff"&gt;</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -198,7 +257,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>贯穿弹</t>
+      <t>事件间隔时间</t>
     </r>
     <r>
       <rPr>
@@ -206,39 +265,38 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>+1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
+      <t>&lt;/font&gt;&lt;font color="#ff7f50"&gt;+10%&lt;/font&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
-      </rPr>
-      <t>事件间隔时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>+10%</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -285,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -294,15 +352,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -646,10 +704,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -657,7 +715,7 @@
     <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -727,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -741,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -755,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -769,7 +827,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -801,9 +859,19 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
@@ -887,7 +955,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>

--- a/docs/excel/TSkill.xlsx
+++ b/docs/excel/TSkill.xlsx
@@ -75,228 +75,76 @@
   </si>
   <si>
     <t>uint32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.贯穿弹2.延长双倍3.加快大招累计4.增加击碎金币5.延长事件间隔时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>整数数值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NumPer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>百分比数值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TableName: "TSkill" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Des</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;font color="#0000ff"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>贯穿弹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;&lt;font color="#ff7f50"&gt;+1&lt;/font&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;font color="#0000ff"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双倍时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;&lt;font color="#ff7f50"&gt;+2s&lt;/font&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;font color="#0000ff"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大招所需能量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;&lt;font color="#ff7f50"&gt;-2%&lt;/font&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;font color="#0000ff"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金币奖励</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;&lt;font color="#ff7f50"&gt;+5%&lt;/font&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;font color="#0000ff"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>事件间隔时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;&lt;font color="#ff7f50"&gt;+10%&lt;/font&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color="#5e78f7"&gt;贯穿弹&lt;/font&gt;&lt;font color="#f96918"&gt;+1&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color="#5e78f7"&gt;双倍时间&lt;/font&gt;&lt;font color="#f96918"&gt;+2s&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color="#5e78f7"&gt;大招所需能量&lt;/font&gt;&lt;font color="#f96918"&gt;-2%&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color="#5e78f7"&gt;金币奖励&lt;/font&gt;&lt;font color="#f96918"&gt;+5%&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color="#5e78f7"&gt;事件间隔时间&lt;/font&gt;&lt;font color="#f96918"&gt;+10%&lt;/font&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -343,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -352,15 +200,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -871,7 +719,7 @@
       <c r="E16" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
@@ -955,7 +803,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>

--- a/docs/excel/TSkill.xlsx
+++ b/docs/excel/TSkill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="450" windowWidth="26670" windowHeight="10830" tabRatio="204"/>
+    <workbookView xWindow="26400" yWindow="240" windowWidth="27735" windowHeight="10830" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TSkill" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -122,19 +122,174 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;font color="#5e78f7"&gt;贯穿弹&lt;/font&gt;&lt;font color="#f96918"&gt;+1&lt;/font&gt;</t>
-  </si>
-  <si>
     <t>&lt;font color="#5e78f7"&gt;双倍时间&lt;/font&gt;&lt;font color="#f96918"&gt;+2s&lt;/font&gt;</t>
   </si>
   <si>
-    <t>&lt;font color="#5e78f7"&gt;大招所需能量&lt;/font&gt;&lt;font color="#f96918"&gt;-2%&lt;/font&gt;</t>
-  </si>
-  <si>
     <t>&lt;font color="#5e78f7"&gt;金币奖励&lt;/font&gt;&lt;font color="#f96918"&gt;+5%&lt;/font&gt;</t>
   </si>
   <si>
     <t>&lt;font color="#5e78f7"&gt;事件间隔时间&lt;/font&gt;&lt;font color="#f96918"&gt;+10%&lt;/font&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color="#5e78f7"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贯穿弹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;&lt;font color="#f96918"&gt;+1&lt;/font&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color="#5e78f7"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大招所需能量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;&lt;font color="#f96918"&gt;-5%&lt;/font&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color="#5e78f7"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事件间隔时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;&lt;font color="#f96918"&gt;+5%&lt;/font&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color="#5e78f7"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贯穿弹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;&lt;font color="#f96918"&gt;+2&lt;/font&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color="#5e78f7"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双倍时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;&lt;font color="#f96918"&gt;+4s&lt;/font&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color="#5e78f7"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大招所需能量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;&lt;font color="#f96918"&gt;-10%&lt;/font&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color="#5e78f7"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金币奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;&lt;font color="#f96918"&gt;+10%&lt;/font&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -554,8 +709,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -633,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -647,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -658,10 +813,10 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -675,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -686,31 +841,81 @@
         <v>5</v>
       </c>
       <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12"/>
+      <c r="E12" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="E13" s="5"/>
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E14" s="5"/>
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E15" s="5"/>

--- a/docs/excel/TSkill.xlsx
+++ b/docs/excel/TSkill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="26400" yWindow="240" windowWidth="27735" windowHeight="10830" tabRatio="204"/>
+    <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TSkill" sheetId="1" r:id="rId1"/>
@@ -122,15 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;font color="#5e78f7"&gt;双倍时间&lt;/font&gt;&lt;font color="#f96918"&gt;+2s&lt;/font&gt;</t>
-  </si>
-  <si>
-    <t>&lt;font color="#5e78f7"&gt;金币奖励&lt;/font&gt;&lt;font color="#f96918"&gt;+5%&lt;/font&gt;</t>
-  </si>
-  <si>
-    <t>&lt;font color="#5e78f7"&gt;事件间隔时间&lt;/font&gt;&lt;font color="#f96918"&gt;+10%&lt;/font&gt;</t>
-  </si>
-  <si>
     <r>
       <t>&lt;font color="#5e78f7"&gt;</t>
     </r>
@@ -149,7 +140,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;/font&gt;&lt;font color="#f96918"&gt;+1&lt;/font&gt;</t>
+      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;+1&lt;/font&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,7 +155,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大招所需能量</t>
+      <t>双倍时间</t>
     </r>
     <r>
       <rPr>
@@ -172,7 +163,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;/font&gt;&lt;font color="#f96918"&gt;-5%&lt;/font&gt;</t>
+      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;+2s&lt;/font&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,7 +178,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>事件间隔时间</t>
+      <t>大招所需能量</t>
     </r>
     <r>
       <rPr>
@@ -195,7 +186,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;/font&gt;&lt;font color="#f96918"&gt;+5%&lt;/font&gt;</t>
+      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;-5%&lt;/font&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,7 +201,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>贯穿弹</t>
+      <t>金币奖励</t>
     </r>
     <r>
       <rPr>
@@ -218,7 +209,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;/font&gt;&lt;font color="#f96918"&gt;+2&lt;/font&gt;</t>
+      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;+5%&lt;/font&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,7 +224,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>双倍时间</t>
+      <t>事件间隔时间</t>
     </r>
     <r>
       <rPr>
@@ -241,7 +232,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;/font&gt;&lt;font color="#f96918"&gt;+4s&lt;/font&gt;</t>
+      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;+5%&lt;/font&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,7 +247,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>大招所需能量</t>
+      <t>贯穿弹</t>
     </r>
     <r>
       <rPr>
@@ -264,7 +255,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;/font&gt;&lt;font color="#f96918"&gt;-10%&lt;/font&gt;</t>
+      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;+2&lt;/font&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,7 +270,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>金币奖励</t>
+      <t>双倍时间</t>
     </r>
     <r>
       <rPr>
@@ -287,7 +278,76 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;/font&gt;&lt;font color="#f96918"&gt;+10%&lt;/font&gt;</t>
+      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;+4s&lt;/font&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color="#5e78f7"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大招所需能量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;-10%&lt;/font&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color="#5e78f7"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金币奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;+10%&lt;/font&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color="#5e78f7"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事件间隔时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;+10%&lt;/font&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,7 +770,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -788,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -802,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -816,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -830,7 +890,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -844,7 +904,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -858,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -872,7 +932,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -886,7 +946,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -900,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -914,7 +974,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">

--- a/docs/excel/TSkill.xlsx
+++ b/docs/excel/TSkill.xlsx
@@ -123,9 +123,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;font color="#5e78f7"&gt;</t>
-    </r>
-    <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
@@ -140,216 +137,36 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;+1&lt;/font&gt;</t>
+      <t>;+1</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>&lt;font color="#5e78f7"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双倍时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;+2s&lt;/font&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;font color="#5e78f7"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大招所需能量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;-5%&lt;/font&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;font color="#5e78f7"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金币奖励</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;+5%&lt;/font&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;font color="#5e78f7"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>事件间隔时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;+5%&lt;/font&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;font color="#5e78f7"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>贯穿弹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;+2&lt;/font&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;font color="#5e78f7"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双倍时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;+4s&lt;/font&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;font color="#5e78f7"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大招所需能量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;-10%&lt;/font&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;font color="#5e78f7"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金币奖励</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;+10%&lt;/font&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;font color="#5e78f7"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>事件间隔时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/font&gt;;&lt;font color="#f96918"&gt;+10%&lt;/font&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>双倍时间;+2s</t>
+  </si>
+  <si>
+    <t>大招所需能量;-5%</t>
+  </si>
+  <si>
+    <t>金币奖励;+5%</t>
+  </si>
+  <si>
+    <t>事件间隔时间;+5%</t>
+  </si>
+  <si>
+    <t>贯穿弹;+2</t>
+  </si>
+  <si>
+    <t>双倍时间;+4s</t>
+  </si>
+  <si>
+    <t>大招所需能量;-10%</t>
+  </si>
+  <si>
+    <t>金币奖励;+10%</t>
+  </si>
+  <si>
+    <t>事件间隔时间;+10%</t>
   </si>
 </sst>
 </file>
@@ -770,7 +587,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
